--- a/Data/aearep-1602/candidatepackages.xlsx
+++ b/Data/aearep-1602/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,46 +22,43 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
     <t>carryforward</t>
   </si>
   <si>
+    <t>gtools</t>
+  </si>
+  <si>
+    <t>ppmlhdfe</t>
+  </si>
+  <si>
     <t>avar</t>
   </si>
   <si>
-    <t>gtools</t>
-  </si>
-  <si>
-    <t>ppmlhdfe</t>
-  </si>
-  <si>
     <t>groups</t>
   </si>
   <si>
+    <t>rd</t>
+  </si>
+  <si>
     <t>table1</t>
   </si>
   <si>
-    <t>rd</t>
+    <t>texdoc</t>
   </si>
   <si>
     <t>moss</t>
   </si>
   <si>
-    <t>texdoc</t>
+    <t>mediation</t>
   </si>
   <si>
     <t>hhi</t>
@@ -70,33 +67,27 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>mediation</t>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>sum2</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>cluster</t>
   </si>
   <si>
     <t>strip</t>
   </si>
   <si>
-    <t>lambda</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>sum2</t>
-  </si>
-  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
@@ -109,24 +100,21 @@
     <t>concord</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
@@ -139,39 +127,30 @@
     <t>mc</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>unemp</t>
   </si>
   <si>
     <t>head</t>
   </si>
   <si>
+    <t>usd</t>
+  </si>
+  <si>
     <t>jc</t>
   </si>
   <si>
+    <t>grand</t>
+  </si>
+  <si>
     <t>taba</t>
   </si>
   <si>
-    <t>usd</t>
+    <t>vlist</t>
   </si>
   <si>
     <t>dash</t>
   </si>
   <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>vlist</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -184,12 +163,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1602</t>
-  </si>
-  <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1602/127261_revision1</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1602/127261_revision1/codelog</t>
   </si>
   <si>
@@ -208,18 +181,9 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1602/127261_revision1/codelog/build/code</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1602/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>config_stata.do</t>
   </si>
   <si>
@@ -338,9 +302,6 @@
   </si>
   <si>
     <t>prep_unemp_data.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -384,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -392,13 +353,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -418,7 +379,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -430,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -442,7 +403,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -454,7 +415,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -466,7 +427,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -478,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -490,7 +451,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -502,7 +463,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -514,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -526,7 +487,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -538,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -550,7 +511,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -562,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>148</v>
+        <v>285</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -574,7 +535,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>158</v>
+        <v>291</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -586,7 +547,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -598,10 +559,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>267</v>
+        <v>390</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D18"/>
     </row>
@@ -610,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D19"/>
     </row>
@@ -622,10 +583,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>309</v>
+        <v>509</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.16826446354389191</v>
       </c>
       <c r="D20"/>
     </row>
@@ -634,10 +595,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>378</v>
+        <v>547</v>
       </c>
       <c r="C21">
-        <v>0.1253315657377243</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D21"/>
     </row>
@@ -646,10 +607,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>417</v>
+        <v>563</v>
       </c>
       <c r="C22">
-        <v>0.13826259970664978</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D22"/>
     </row>
@@ -658,10 +619,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="C23">
-        <v>0.16677719354629517</v>
+        <v>0.19008263945579529</v>
       </c>
       <c r="D23"/>
     </row>
@@ -670,10 +631,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>519</v>
+        <v>611</v>
       </c>
       <c r="C24">
-        <v>0.17208223044872284</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D24"/>
     </row>
@@ -682,10 +643,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="C25">
-        <v>0.18700265884399414</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D25"/>
     </row>
@@ -694,10 +655,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>565</v>
+        <v>712</v>
       </c>
       <c r="C26">
-        <v>0.18733422458171844</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D26"/>
     </row>
@@ -706,10 +667,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>566</v>
+        <v>852</v>
       </c>
       <c r="C27">
-        <v>0.18766577541828156</v>
+        <v>0.28165289759635925</v>
       </c>
       <c r="D27"/>
     </row>
@@ -718,10 +679,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>606</v>
+        <v>926</v>
       </c>
       <c r="C28">
-        <v>0.20092837512493134</v>
+        <v>0.30611571669578552</v>
       </c>
       <c r="D28"/>
     </row>
@@ -730,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>745</v>
+        <v>955</v>
       </c>
       <c r="C29">
-        <v>0.24701590836048126</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D29"/>
     </row>
@@ -742,10 +703,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>839</v>
+        <v>998</v>
       </c>
       <c r="C30">
-        <v>0.27818301320075989</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D30"/>
     </row>
@@ -754,10 +715,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>915</v>
+        <v>1125</v>
       </c>
       <c r="C31">
-        <v>0.30338194966316223</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D31"/>
     </row>
@@ -766,10 +727,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>985</v>
+        <v>1306</v>
       </c>
       <c r="C32">
-        <v>0.32659152150154114</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D32"/>
     </row>
@@ -778,10 +739,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1124</v>
+        <v>1414</v>
       </c>
       <c r="C33">
-        <v>0.37267905473709106</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D33"/>
     </row>
@@ -790,10 +751,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1133</v>
+        <v>1428</v>
       </c>
       <c r="C34">
-        <v>0.37566313147544861</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D34"/>
     </row>
@@ -802,10 +763,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1194</v>
+        <v>1497</v>
       </c>
       <c r="C35">
-        <v>0.39588859677314758</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D35"/>
     </row>
@@ -814,10 +775,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1423</v>
+        <v>1695</v>
       </c>
       <c r="C36">
-        <v>0.47181698679924011</v>
+        <v>0.56033056974411011</v>
       </c>
       <c r="D36"/>
     </row>
@@ -826,10 +787,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1472</v>
+        <v>1767</v>
       </c>
       <c r="C37">
-        <v>0.48806366324424744</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D37"/>
     </row>
@@ -838,10 +799,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1553</v>
+        <v>1838</v>
       </c>
       <c r="C38">
-        <v>0.51492041349411011</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D38"/>
     </row>
@@ -850,10 +811,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1660</v>
+        <v>1971</v>
       </c>
       <c r="C39">
-        <v>0.55039787292480469</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D39"/>
     </row>
@@ -862,10 +823,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1682</v>
+        <v>2008</v>
       </c>
       <c r="C40">
-        <v>0.55769228935241699</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D40"/>
     </row>
@@ -874,10 +835,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1755</v>
+        <v>2129</v>
       </c>
       <c r="C41">
-        <v>0.58189654350280762</v>
+        <v>0.70380163192749023</v>
       </c>
       <c r="D41"/>
     </row>
@@ -886,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1798</v>
+        <v>2218</v>
       </c>
       <c r="C42">
-        <v>0.5961538553237915</v>
+        <v>0.73322314023971558</v>
       </c>
       <c r="D42"/>
     </row>
@@ -898,10 +859,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1817</v>
+        <v>2279</v>
       </c>
       <c r="C43">
-        <v>0.60245358943939209</v>
+        <v>0.75338840484619141</v>
       </c>
       <c r="D43"/>
     </row>
@@ -910,10 +871,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1859</v>
+        <v>2283</v>
       </c>
       <c r="C44">
-        <v>0.61637932062149048</v>
+        <v>0.75471073389053345</v>
       </c>
       <c r="D44"/>
     </row>
@@ -922,96 +883,12 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2000</v>
+        <v>2436</v>
       </c>
       <c r="C45">
-        <v>0.66312998533248901</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D45"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>2133</v>
-      </c>
-      <c r="C46">
-        <v>0.70722812414169312</v>
-      </c>
-      <c r="D46"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>2134</v>
-      </c>
-      <c r="C47">
-        <v>0.70755970478057861</v>
-      </c>
-      <c r="D47"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>2210</v>
-      </c>
-      <c r="C48">
-        <v>0.73275864124298096</v>
-      </c>
-      <c r="D48"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>2217</v>
-      </c>
-      <c r="C49">
-        <v>0.73507958650588989</v>
-      </c>
-      <c r="D49"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>2424</v>
-      </c>
-      <c r="C50">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D50"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>2430</v>
-      </c>
-      <c r="C51">
-        <v>0.80570292472839355</v>
-      </c>
-      <c r="D51"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>2679</v>
-      </c>
-      <c r="C52">
-        <v>0.88826256990432739</v>
-      </c>
-      <c r="D52"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1019,367 +896,335 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
